--- a/Pesquisa e Inovação/Prototipo Dashboard/Dash Board- prototipo-final.xlsx
+++ b/Pesquisa e Inovação/Prototipo Dashboard/Dash Board- prototipo-final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean_\OneDrive\Documents\atividades\github\Sprint\GrapeTec\Pesquisa e Inovação\Prototipo Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD421E7-3FDA-4E90-9360-C20921E26B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EDB191-381A-4E36-9660-6F234417E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -203,17 +203,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -222,10 +213,17 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6478,13 +6476,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>440055</xdr:colOff>
+      <xdr:colOff>538667</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>105987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>186690</xdr:colOff>
+      <xdr:colOff>285302</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>144261</xdr:rowOff>
     </xdr:to>
@@ -6504,8 +6502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5069205" y="8221287"/>
-          <a:ext cx="1080135" cy="381174"/>
+          <a:off x="5191349" y="8559705"/>
+          <a:ext cx="1091341" cy="396862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6603,142 +6601,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>15.5°C  </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>115512</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>344805</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>153786</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="TextBox 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF78C69-F97F-4FB1-80F4-0550E94F8C71}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{28DA00F1-0E39-4BA3-9C0B-6FC1D61228B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6244590" y="8230812"/>
-          <a:ext cx="729615" cy="381174"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>6:30</a:t>
+            <a:t>16°C  </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6873,7 +6736,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>SENSOR 3</a:t>
+            <a:t>SENSOR 2</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7008,7 +6871,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>0.0°C  </a:t>
+            <a:t>19°C  </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7143,7 +7006,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>a partir das 20:00</a:t>
+            <a:t>a partir das 00:00</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7492,10 +7355,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tipo de Madeira">
   <a:themeElements>
@@ -7784,10 +7643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP70"/>
+  <dimension ref="A5:AP70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z70" sqref="Z70"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7796,349 +7655,229 @@
     <col min="8" max="9" width="8.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
-      <c r="AA2" s="21"/>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-      <c r="X3" s="21"/>
-      <c r="Y3" s="21"/>
-      <c r="Z3" s="21"/>
-      <c r="AA3" s="21"/>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-    </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
     </row>
     <row r="7" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="17" t="s">
+      <c r="A7" s="21"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
     </row>
     <row r="8" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
+      <c r="A8" s="21"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
     </row>
     <row r="9" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
+      <c r="A9" s="21"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
+      <c r="A10" s="21"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
+      <c r="A11" s="21"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="22"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
+      <c r="A12" s="21"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
       <c r="AC12" s="1" t="s">
         <v>0</v>
       </c>
@@ -8167,53 +7906,53 @@
       <c r="AP12" s="1"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
       <c r="AC13" s="9">
         <v>1</v>
       </c>
       <c r="AD13" s="2">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="AE13" s="16">
+      <c r="AE13" s="15">
         <v>16</v>
       </c>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="15">
+      <c r="AF13" s="15"/>
+      <c r="AG13" s="15"/>
+      <c r="AH13" s="22">
         <v>16</v>
       </c>
-      <c r="AI13" s="15"/>
-      <c r="AJ13" s="15"/>
-      <c r="AK13" s="16">
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22"/>
+      <c r="AK13" s="15">
         <v>18</v>
       </c>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
+      <c r="AL13" s="15"/>
+      <c r="AM13" s="15"/>
       <c r="AN13" s="12"/>
       <c r="AO13" s="11">
         <v>16</v>
@@ -8221,53 +7960,53 @@
       <c r="AP13" s="12"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
+      <c r="A14" s="21"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
       <c r="AC14" s="9">
         <v>2</v>
       </c>
       <c r="AD14" s="2">
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="AE14" s="16">
+      <c r="AE14" s="15">
         <v>16</v>
       </c>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="15">
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="22">
         <v>16</v>
       </c>
-      <c r="AI14" s="15"/>
-      <c r="AJ14" s="15"/>
-      <c r="AK14" s="16">
+      <c r="AI14" s="22"/>
+      <c r="AJ14" s="22"/>
+      <c r="AK14" s="15">
         <v>18</v>
       </c>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
       <c r="AN14" s="12"/>
       <c r="AO14" s="11">
         <v>16</v>
@@ -8275,32 +8014,32 @@
       <c r="AP14" s="12"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
       <c r="AC15" s="9">
         <v>3</v>
       </c>
@@ -8317,11 +8056,11 @@
         <v>16</v>
       </c>
       <c r="AJ15" s="4"/>
-      <c r="AK15" s="16">
+      <c r="AK15" s="15">
         <v>18</v>
       </c>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
       <c r="AN15" s="12"/>
       <c r="AO15" s="11">
         <v>16</v>
@@ -8329,32 +8068,32 @@
       <c r="AP15" s="12"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
       <c r="AC16" s="9">
         <v>4</v>
       </c>
@@ -8371,11 +8110,11 @@
         <v>16</v>
       </c>
       <c r="AJ16" s="4"/>
-      <c r="AK16" s="16">
+      <c r="AK16" s="15">
         <v>18</v>
       </c>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
       <c r="AN16" s="12"/>
       <c r="AO16" s="11">
         <v>16</v>
@@ -8383,32 +8122,32 @@
       <c r="AP16" s="12"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
       <c r="AC17" s="9">
         <v>5</v>
       </c>
@@ -8425,11 +8164,11 @@
         <v>16</v>
       </c>
       <c r="AJ17" s="4"/>
-      <c r="AK17" s="16">
+      <c r="AK17" s="15">
         <v>18</v>
       </c>
-      <c r="AL17" s="16"/>
-      <c r="AM17" s="16"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
       <c r="AN17" s="12"/>
       <c r="AO17" s="11">
         <v>16</v>
@@ -8437,32 +8176,32 @@
       <c r="AP17" s="12"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="22"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
+      <c r="A18" s="21"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
       <c r="AC18" s="9">
         <v>6</v>
       </c>
@@ -8479,11 +8218,11 @@
         <v>16</v>
       </c>
       <c r="AJ18" s="4"/>
-      <c r="AK18" s="16">
+      <c r="AK18" s="15">
         <v>18</v>
       </c>
-      <c r="AL18" s="16"/>
-      <c r="AM18" s="16"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
       <c r="AN18" s="12"/>
       <c r="AO18" s="11">
         <v>16</v>
@@ -8491,32 +8230,32 @@
       <c r="AP18" s="12"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
+      <c r="A19" s="21"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
       <c r="AC19" s="9">
         <v>7</v>
       </c>
@@ -8533,11 +8272,11 @@
         <v>16</v>
       </c>
       <c r="AJ19" s="4"/>
-      <c r="AK19" s="16">
+      <c r="AK19" s="15">
         <v>18</v>
       </c>
-      <c r="AL19" s="16"/>
-      <c r="AM19" s="16"/>
+      <c r="AL19" s="15"/>
+      <c r="AM19" s="15"/>
       <c r="AN19" s="12"/>
       <c r="AO19" s="11">
         <v>16</v>
@@ -8545,32 +8284,32 @@
       <c r="AP19" s="12"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="22"/>
-      <c r="X20" s="22"/>
-      <c r="Y20" s="22"/>
-      <c r="Z20" s="22"/>
-      <c r="AA20" s="22"/>
+      <c r="A20" s="21"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
       <c r="AC20" s="9">
         <v>8</v>
       </c>
@@ -8587,11 +8326,11 @@
         <v>16</v>
       </c>
       <c r="AJ20" s="4"/>
-      <c r="AK20" s="16">
+      <c r="AK20" s="15">
         <v>18</v>
       </c>
-      <c r="AL20" s="16"/>
-      <c r="AM20" s="16"/>
+      <c r="AL20" s="15"/>
+      <c r="AM20" s="15"/>
       <c r="AN20" s="12"/>
       <c r="AO20" s="11">
         <v>16</v>
@@ -8599,32 +8338,32 @@
       <c r="AP20" s="12"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
-      <c r="U21" s="22"/>
-      <c r="V21" s="22"/>
-      <c r="W21" s="22"/>
-      <c r="X21" s="22"/>
-      <c r="Y21" s="22"/>
-      <c r="Z21" s="22"/>
-      <c r="AA21" s="22"/>
+      <c r="A21" s="21"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
       <c r="AC21" s="9">
         <v>9</v>
       </c>
@@ -8641,11 +8380,11 @@
         <v>16</v>
       </c>
       <c r="AJ21" s="4"/>
-      <c r="AK21" s="16">
+      <c r="AK21" s="15">
         <v>18</v>
       </c>
-      <c r="AL21" s="16"/>
-      <c r="AM21" s="16"/>
+      <c r="AL21" s="15"/>
+      <c r="AM21" s="15"/>
       <c r="AN21" s="12"/>
       <c r="AO21" s="11">
         <v>16</v>
@@ -8653,32 +8392,32 @@
       <c r="AP21" s="12"/>
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
+      <c r="A22" s="21"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
       <c r="AC22" s="9">
         <v>10</v>
       </c>
@@ -8695,11 +8434,11 @@
         <v>16</v>
       </c>
       <c r="AJ22" s="4"/>
-      <c r="AK22" s="16">
+      <c r="AK22" s="15">
         <v>18</v>
       </c>
-      <c r="AL22" s="16"/>
-      <c r="AM22" s="16"/>
+      <c r="AL22" s="15"/>
+      <c r="AM22" s="15"/>
       <c r="AN22" s="12"/>
       <c r="AO22" s="11">
         <v>16</v>
@@ -8707,32 +8446,32 @@
       <c r="AP22" s="12"/>
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
-      <c r="U23" s="22"/>
-      <c r="V23" s="22"/>
-      <c r="W23" s="22"/>
-      <c r="X23" s="22"/>
-      <c r="Y23" s="22"/>
-      <c r="Z23" s="22"/>
-      <c r="AA23" s="22"/>
+      <c r="A23" s="21"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
       <c r="AC23" s="9">
         <v>11</v>
       </c>
@@ -8749,11 +8488,11 @@
         <v>16</v>
       </c>
       <c r="AJ23" s="4"/>
-      <c r="AK23" s="16">
+      <c r="AK23" s="15">
         <v>18</v>
       </c>
-      <c r="AL23" s="16"/>
-      <c r="AM23" s="16"/>
+      <c r="AL23" s="15"/>
+      <c r="AM23" s="15"/>
       <c r="AN23" s="12"/>
       <c r="AO23" s="11">
         <v>16</v>
@@ -8761,32 +8500,32 @@
       <c r="AP23" s="12"/>
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
+      <c r="A24" s="21"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
       <c r="AC24" s="9">
         <v>12</v>
       </c>
@@ -8803,11 +8542,11 @@
         <v>16</v>
       </c>
       <c r="AJ24" s="4"/>
-      <c r="AK24" s="16">
+      <c r="AK24" s="15">
         <v>18</v>
       </c>
-      <c r="AL24" s="16"/>
-      <c r="AM24" s="16"/>
+      <c r="AL24" s="15"/>
+      <c r="AM24" s="15"/>
       <c r="AN24" s="12"/>
       <c r="AO24" s="11">
         <v>16</v>
@@ -8815,32 +8554,32 @@
       <c r="AP24" s="12"/>
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
-      <c r="U25" s="22"/>
-      <c r="V25" s="22"/>
-      <c r="W25" s="22"/>
-      <c r="X25" s="22"/>
-      <c r="Y25" s="22"/>
-      <c r="Z25" s="22"/>
-      <c r="AA25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
       <c r="AC25" s="9">
         <v>13</v>
       </c>
@@ -8857,11 +8596,11 @@
         <v>16</v>
       </c>
       <c r="AJ25" s="4"/>
-      <c r="AK25" s="16">
+      <c r="AK25" s="15">
         <v>18</v>
       </c>
-      <c r="AL25" s="16"/>
-      <c r="AM25" s="16"/>
+      <c r="AL25" s="15"/>
+      <c r="AM25" s="15"/>
       <c r="AN25" s="12"/>
       <c r="AO25" s="11">
         <v>16</v>
@@ -8869,32 +8608,32 @@
       <c r="AP25" s="12"/>
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
-      <c r="U26" s="22"/>
-      <c r="V26" s="22"/>
-      <c r="W26" s="22"/>
-      <c r="X26" s="22"/>
-      <c r="Y26" s="22"/>
-      <c r="Z26" s="22"/>
-      <c r="AA26" s="22"/>
+      <c r="A26" s="21"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
       <c r="AC26" s="9">
         <v>14</v>
       </c>
@@ -8911,11 +8650,11 @@
         <v>16</v>
       </c>
       <c r="AJ26" s="4"/>
-      <c r="AK26" s="16">
+      <c r="AK26" s="15">
         <v>18</v>
       </c>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
       <c r="AN26" s="12"/>
       <c r="AO26" s="11">
         <v>16</v>
@@ -8923,32 +8662,32 @@
       <c r="AP26" s="12"/>
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
-      <c r="U27" s="22"/>
-      <c r="V27" s="22"/>
-      <c r="W27" s="22"/>
-      <c r="X27" s="22"/>
-      <c r="Y27" s="22"/>
-      <c r="Z27" s="22"/>
-      <c r="AA27" s="22"/>
+      <c r="A27" s="21"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
       <c r="AC27" s="9">
         <v>15</v>
       </c>
@@ -8965,11 +8704,11 @@
         <v>16</v>
       </c>
       <c r="AJ27" s="4"/>
-      <c r="AK27" s="16">
+      <c r="AK27" s="15">
         <v>18</v>
       </c>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="11">
         <v>16</v>
@@ -8977,32 +8716,32 @@
       <c r="AP27" s="12"/>
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="22"/>
-      <c r="AA28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
       <c r="AC28" s="9">
         <v>16</v>
       </c>
@@ -9019,11 +8758,11 @@
         <v>16</v>
       </c>
       <c r="AJ28" s="4"/>
-      <c r="AK28" s="16">
+      <c r="AK28" s="15">
         <v>18</v>
       </c>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
       <c r="AN28" s="12"/>
       <c r="AO28" s="11">
         <v>16</v>
@@ -9031,32 +8770,32 @@
       <c r="AP28" s="12"/>
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
-      <c r="U29" s="22"/>
-      <c r="V29" s="22"/>
-      <c r="W29" s="22"/>
-      <c r="X29" s="22"/>
-      <c r="Y29" s="22"/>
-      <c r="Z29" s="22"/>
-      <c r="AA29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
       <c r="AC29" s="9">
         <v>17</v>
       </c>
@@ -9073,11 +8812,11 @@
         <v>16.8</v>
       </c>
       <c r="AJ29" s="4"/>
-      <c r="AK29" s="16">
+      <c r="AK29" s="15">
         <v>18</v>
       </c>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
       <c r="AN29" s="12"/>
       <c r="AO29" s="11">
         <v>16</v>
@@ -9085,32 +8824,32 @@
       <c r="AP29" s="12"/>
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="22"/>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="22"/>
-      <c r="AA30" s="22"/>
+      <c r="A30" s="21"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
       <c r="AC30" s="9">
         <v>18</v>
       </c>
@@ -9127,11 +8866,11 @@
         <v>16.899999999999999</v>
       </c>
       <c r="AJ30" s="4"/>
-      <c r="AK30" s="16">
+      <c r="AK30" s="15">
         <v>18</v>
       </c>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
+      <c r="AL30" s="15"/>
+      <c r="AM30" s="15"/>
       <c r="AN30" s="12"/>
       <c r="AO30" s="11">
         <v>16</v>
@@ -9139,32 +8878,32 @@
       <c r="AP30" s="12"/>
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
+      <c r="A31" s="21"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
       <c r="AC31" s="9">
         <v>19</v>
       </c>
@@ -9181,11 +8920,11 @@
         <v>17</v>
       </c>
       <c r="AJ31" s="4"/>
-      <c r="AK31" s="16">
+      <c r="AK31" s="15">
         <v>18</v>
       </c>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="16"/>
+      <c r="AL31" s="15"/>
+      <c r="AM31" s="15"/>
       <c r="AN31" s="12"/>
       <c r="AO31" s="11">
         <v>16</v>
@@ -9193,33 +8932,31 @@
       <c r="AP31" s="12"/>
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
-      <c r="W32" s="22"/>
-      <c r="X32" s="22"/>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="14"/>
+      <c r="Z32" s="14"/>
+      <c r="AA32" s="14"/>
       <c r="AC32" s="9">
         <v>20</v>
       </c>
@@ -9236,45 +8973,43 @@
         <v>17.5</v>
       </c>
       <c r="AJ32" s="4"/>
-      <c r="AK32" s="16">
+      <c r="AK32" s="15">
         <v>18</v>
       </c>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
+      <c r="AL32" s="15"/>
+      <c r="AM32" s="15"/>
       <c r="AN32" s="12"/>
       <c r="AO32" s="11">
         <v>16</v>
       </c>
       <c r="AP32" s="12"/>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="22"/>
-      <c r="X33" s="22"/>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22"/>
+    <row r="33" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+      <c r="T33" s="14"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="14"/>
+      <c r="W33" s="14"/>
+      <c r="X33" s="14"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
       <c r="AC33" s="9">
         <v>21</v>
       </c>
@@ -9291,45 +9026,43 @@
         <v>17.8</v>
       </c>
       <c r="AJ33" s="4"/>
-      <c r="AK33" s="16">
+      <c r="AK33" s="15">
         <v>18</v>
       </c>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
+      <c r="AL33" s="15"/>
+      <c r="AM33" s="15"/>
       <c r="AN33" s="12"/>
       <c r="AO33" s="11">
         <v>16</v>
       </c>
       <c r="AP33" s="12"/>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="22"/>
-      <c r="S34" s="22"/>
-      <c r="T34" s="22"/>
-      <c r="U34" s="22"/>
-      <c r="V34" s="22"/>
-      <c r="W34" s="22"/>
-      <c r="X34" s="22"/>
-      <c r="Y34" s="22"/>
-      <c r="Z34" s="22"/>
-      <c r="AA34" s="22"/>
+    <row r="34" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
+      <c r="V34" s="14"/>
+      <c r="W34" s="14"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
+      <c r="AA34" s="14"/>
       <c r="AC34" s="9">
         <v>22</v>
       </c>
@@ -9346,45 +9079,43 @@
         <v>18</v>
       </c>
       <c r="AJ34" s="4"/>
-      <c r="AK34" s="16">
+      <c r="AK34" s="15">
         <v>18</v>
       </c>
-      <c r="AL34" s="16"/>
-      <c r="AM34" s="16"/>
+      <c r="AL34" s="15"/>
+      <c r="AM34" s="15"/>
       <c r="AN34" s="12"/>
       <c r="AO34" s="11">
         <v>16</v>
       </c>
       <c r="AP34" s="12"/>
     </row>
-    <row r="35" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
+    <row r="35" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+      <c r="T35" s="14"/>
+      <c r="U35" s="14"/>
+      <c r="V35" s="14"/>
+      <c r="W35" s="14"/>
+      <c r="X35" s="14"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
+      <c r="AA35" s="14"/>
       <c r="AC35" s="9">
         <v>23</v>
       </c>
@@ -9401,45 +9132,43 @@
         <v>18.5</v>
       </c>
       <c r="AJ35" s="4"/>
-      <c r="AK35" s="16">
+      <c r="AK35" s="15">
         <v>18</v>
       </c>
-      <c r="AL35" s="16"/>
-      <c r="AM35" s="16"/>
+      <c r="AL35" s="15"/>
+      <c r="AM35" s="15"/>
       <c r="AN35" s="12"/>
       <c r="AO35" s="11">
         <v>16</v>
       </c>
       <c r="AP35" s="12"/>
     </row>
-    <row r="36" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
-      <c r="P36" s="22"/>
-      <c r="Q36" s="22"/>
-      <c r="R36" s="22"/>
-      <c r="S36" s="22"/>
-      <c r="T36" s="22"/>
-      <c r="U36" s="22"/>
-      <c r="V36" s="22"/>
-      <c r="W36" s="22"/>
-      <c r="X36" s="22"/>
-      <c r="Y36" s="22"/>
-      <c r="Z36" s="22"/>
-      <c r="AA36" s="22"/>
+    <row r="36" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
       <c r="AC36" s="9">
         <v>24</v>
       </c>
@@ -9456,944 +9185,672 @@
         <v>19</v>
       </c>
       <c r="AJ36" s="4"/>
-      <c r="AK36" s="16">
+      <c r="AK36" s="15">
         <v>18</v>
       </c>
-      <c r="AL36" s="16"/>
-      <c r="AM36" s="16"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
       <c r="AN36" s="12"/>
       <c r="AO36" s="11">
         <v>16</v>
       </c>
       <c r="AP36" s="13"/>
     </row>
-    <row r="37" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="22"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="22"/>
-      <c r="S37" s="22"/>
-      <c r="T37" s="22"/>
-      <c r="U37" s="22"/>
-      <c r="V37" s="22"/>
-      <c r="W37" s="22"/>
-      <c r="X37" s="22"/>
-      <c r="Y37" s="22"/>
-      <c r="Z37" s="22"/>
-      <c r="AA37" s="22"/>
+    <row r="37" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="14"/>
+      <c r="S37" s="14"/>
+      <c r="T37" s="14"/>
+      <c r="U37" s="14"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
+      <c r="AA37" s="14"/>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="22"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
-      <c r="T38" s="22"/>
-      <c r="U38" s="22"/>
-      <c r="V38" s="22"/>
-      <c r="W38" s="22"/>
-      <c r="X38" s="22"/>
-      <c r="Y38" s="22"/>
-      <c r="Z38" s="22"/>
-      <c r="AA38" s="22"/>
+    <row r="38" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+      <c r="Y38" s="14"/>
+      <c r="Z38" s="14"/>
+      <c r="AA38" s="14"/>
     </row>
-    <row r="39" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="19" t="s">
+    <row r="39" spans="3:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="S39" s="19"/>
-      <c r="T39" s="19"/>
-      <c r="U39" s="19"/>
-      <c r="V39" s="19"/>
-      <c r="W39" s="19"/>
-      <c r="X39" s="19"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="24"/>
-      <c r="AA39" s="24"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="16"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
     </row>
-    <row r="40" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="22"/>
-      <c r="Q40" s="22"/>
-      <c r="R40" s="19"/>
-      <c r="S40" s="19"/>
-      <c r="T40" s="19"/>
-      <c r="U40" s="19"/>
-      <c r="V40" s="19"/>
-      <c r="W40" s="19"/>
-      <c r="X40" s="19"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="24"/>
-      <c r="AA40" s="24"/>
+    <row r="40" spans="3:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="16"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
+      <c r="W40" s="16"/>
+      <c r="X40" s="16"/>
+      <c r="Y40" s="18"/>
+      <c r="Z40" s="18"/>
+      <c r="AA40" s="18"/>
     </row>
-    <row r="41" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="19"/>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="19"/>
-      <c r="X41" s="19"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="24"/>
-      <c r="AA41" s="24"/>
+    <row r="41" spans="3:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="16"/>
+      <c r="S41" s="16"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
+      <c r="W41" s="16"/>
+      <c r="X41" s="16"/>
+      <c r="Y41" s="18"/>
+      <c r="Z41" s="18"/>
+      <c r="AA41" s="18"/>
     </row>
-    <row r="42" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="19"/>
-      <c r="S42" s="19"/>
-      <c r="T42" s="19"/>
-      <c r="U42" s="19"/>
-      <c r="V42" s="19"/>
-      <c r="W42" s="19"/>
-      <c r="X42" s="19"/>
-      <c r="Y42" s="24"/>
-      <c r="Z42" s="24"/>
-      <c r="AA42" s="24"/>
+    <row r="42" spans="3:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="16"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
+      <c r="W42" s="16"/>
+      <c r="X42" s="16"/>
+      <c r="Y42" s="18"/>
+      <c r="Z42" s="18"/>
+      <c r="AA42" s="18"/>
     </row>
-    <row r="43" spans="1:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="20"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
-      <c r="AA43" s="24"/>
+    <row r="43" spans="3:42" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="18"/>
+      <c r="Z43" s="18"/>
+      <c r="AA43" s="18"/>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
+    <row r="44" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
+    <row r="45" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="14"/>
+      <c r="AA45" s="14"/>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="22"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="22"/>
-      <c r="U46" s="22"/>
-      <c r="V46" s="22"/>
-      <c r="W46" s="22"/>
-      <c r="X46" s="22"/>
-      <c r="Y46" s="22"/>
-      <c r="Z46" s="22"/>
-      <c r="AA46" s="22"/>
+    <row r="46" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="14"/>
+      <c r="Y46" s="14"/>
+      <c r="Z46" s="14"/>
+      <c r="AA46" s="14"/>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="22"/>
-      <c r="U47" s="22"/>
-      <c r="V47" s="22"/>
-      <c r="W47" s="22"/>
-      <c r="X47" s="22"/>
-      <c r="Y47" s="22"/>
-      <c r="Z47" s="22"/>
-      <c r="AA47" s="22"/>
+    <row r="47" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="14"/>
+      <c r="S47" s="14"/>
+      <c r="T47" s="14"/>
+      <c r="U47" s="14"/>
+      <c r="V47" s="14"/>
+      <c r="W47" s="14"/>
+      <c r="X47" s="14"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="22"/>
-      <c r="U48" s="22"/>
-      <c r="V48" s="22"/>
-      <c r="W48" s="22"/>
-      <c r="X48" s="22"/>
-      <c r="Y48" s="22"/>
-      <c r="Z48" s="22"/>
-      <c r="AA48" s="22"/>
+    <row r="48" spans="3:42" x14ac:dyDescent="0.25">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="14"/>
+      <c r="P48" s="14"/>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="14"/>
+      <c r="S48" s="14"/>
+      <c r="T48" s="14"/>
+      <c r="U48" s="14"/>
+      <c r="V48" s="14"/>
+      <c r="W48" s="14"/>
+      <c r="X48" s="14"/>
+      <c r="Y48" s="14"/>
+      <c r="Z48" s="14"/>
+      <c r="AA48" s="14"/>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="14"/>
+      <c r="Y50" s="14"/>
+      <c r="Z50" s="14"/>
+      <c r="AA50" s="14"/>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22"/>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="14"/>
+      <c r="Z51" s="14"/>
+      <c r="AA51" s="14"/>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="22"/>
-      <c r="AA52" s="22"/>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="14"/>
+      <c r="Y52" s="14"/>
+      <c r="Z52" s="14"/>
+      <c r="AA52" s="14"/>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="22"/>
-      <c r="AA53" s="22"/>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="14"/>
+      <c r="Y53" s="14"/>
+      <c r="Z53" s="14"/>
+      <c r="AA53" s="14"/>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="22"/>
-      <c r="S54" s="22"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="22"/>
-      <c r="V54" s="22"/>
-      <c r="W54" s="22"/>
-      <c r="X54" s="22"/>
-      <c r="Y54" s="22"/>
-      <c r="Z54" s="22"/>
-      <c r="AA54" s="22"/>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="14"/>
+      <c r="Y54" s="14"/>
+      <c r="Z54" s="14"/>
+      <c r="AA54" s="14"/>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
-      <c r="S55" s="22"/>
-      <c r="T55" s="22"/>
-      <c r="U55" s="22"/>
-      <c r="V55" s="22"/>
-      <c r="W55" s="22"/>
-      <c r="X55" s="22"/>
-      <c r="Y55" s="22"/>
-      <c r="Z55" s="22"/>
-      <c r="AA55" s="22"/>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="14"/>
+      <c r="Y55" s="14"/>
+      <c r="Z55" s="14"/>
+      <c r="AA55" s="14"/>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
-      <c r="S56" s="22"/>
-      <c r="T56" s="22"/>
-      <c r="U56" s="22"/>
-      <c r="V56" s="22"/>
-      <c r="W56" s="22"/>
-      <c r="X56" s="22"/>
-      <c r="Y56" s="22"/>
-      <c r="Z56" s="22"/>
-      <c r="AA56" s="22"/>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="14"/>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="14"/>
+      <c r="S56" s="14"/>
+      <c r="T56" s="14"/>
+      <c r="U56" s="14"/>
+      <c r="V56" s="14"/>
+      <c r="W56" s="14"/>
+      <c r="X56" s="14"/>
+      <c r="Y56" s="14"/>
+      <c r="Z56" s="14"/>
+      <c r="AA56" s="14"/>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="22"/>
-      <c r="R57" s="22"/>
-      <c r="S57" s="22"/>
-      <c r="T57" s="22"/>
-      <c r="U57" s="22"/>
-      <c r="V57" s="22"/>
-      <c r="W57" s="22"/>
-      <c r="X57" s="22"/>
-      <c r="Y57" s="22"/>
-      <c r="Z57" s="22"/>
-      <c r="AA57" s="22"/>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="14"/>
+      <c r="P57" s="14"/>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="14"/>
+      <c r="S57" s="14"/>
+      <c r="T57" s="14"/>
+      <c r="U57" s="14"/>
+      <c r="V57" s="14"/>
+      <c r="W57" s="14"/>
+      <c r="X57" s="14"/>
+      <c r="Y57" s="14"/>
+      <c r="Z57" s="14"/>
+      <c r="AA57" s="14"/>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="14"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="14"/>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="14"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="14"/>
+      <c r="S59" s="14"/>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="14"/>
+      <c r="X59" s="14"/>
+      <c r="Y59" s="14"/>
+      <c r="Z59" s="14"/>
+      <c r="AA59" s="14"/>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22"/>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="14"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="14"/>
+      <c r="S60" s="14"/>
+      <c r="T60" s="14"/>
+      <c r="U60" s="14"/>
+      <c r="V60" s="14"/>
+      <c r="W60" s="14"/>
+      <c r="X60" s="14"/>
+      <c r="Y60" s="14"/>
+      <c r="Z60" s="14"/>
+      <c r="AA60" s="14"/>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="21"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="21"/>
-      <c r="M61" s="21"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="21"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="21"/>
-      <c r="R61" s="21"/>
-      <c r="S61" s="21"/>
-      <c r="T61" s="21"/>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="21"/>
-      <c r="X61" s="21"/>
-      <c r="Y61" s="21"/>
-      <c r="Z61" s="21"/>
-      <c r="AA61" s="21"/>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="21"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="21"/>
-      <c r="M62" s="21"/>
-      <c r="N62" s="21"/>
-      <c r="O62" s="21"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="21"/>
-      <c r="S62" s="21"/>
-      <c r="T62" s="21"/>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="21"/>
-      <c r="X62" s="21"/>
-      <c r="Y62" s="21"/>
-      <c r="Z62" s="21"/>
-      <c r="AA62" s="21"/>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="21"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="21"/>
-      <c r="M63" s="21"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="21"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="21"/>
-      <c r="S63" s="21"/>
-      <c r="T63" s="21"/>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="21"/>
-      <c r="X63" s="21"/>
-      <c r="Y63" s="21"/>
-      <c r="Z63" s="21"/>
-      <c r="AA63" s="21"/>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="21"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="21"/>
-      <c r="M65" s="21"/>
-      <c r="N65" s="21"/>
-      <c r="O65" s="21"/>
-      <c r="P65" s="21"/>
-      <c r="Q65" s="21"/>
-      <c r="R65" s="21"/>
-      <c r="S65" s="21"/>
-      <c r="T65" s="21"/>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="21"/>
-      <c r="X65" s="21"/>
-      <c r="Y65" s="21"/>
-      <c r="Z65" s="21"/>
-      <c r="AA65" s="21"/>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="21"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="21"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="21"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="21"/>
-      <c r="M66" s="21"/>
-      <c r="N66" s="21"/>
-      <c r="O66" s="21"/>
-      <c r="P66" s="21"/>
-      <c r="Q66" s="21"/>
-      <c r="R66" s="21"/>
-      <c r="S66" s="21"/>
-      <c r="T66" s="21"/>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21"/>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="21"/>
-      <c r="AA66" s="21"/>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="21"/>
-      <c r="J67" s="21"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="21"/>
-      <c r="M67" s="21"/>
-      <c r="N67" s="21"/>
-      <c r="O67" s="21"/>
-      <c r="P67" s="21"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="21"/>
-      <c r="S67" s="21"/>
-      <c r="T67" s="21"/>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="21"/>
-      <c r="X67" s="21"/>
-      <c r="Y67" s="21"/>
-      <c r="Z67" s="21"/>
-      <c r="AA67" s="21"/>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z70" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AK23:AM23"/>
-    <mergeCell ref="AK24:AM24"/>
-    <mergeCell ref="AK25:AM25"/>
-    <mergeCell ref="AK26:AM26"/>
-    <mergeCell ref="AK27:AM27"/>
-    <mergeCell ref="AK28:AM28"/>
-    <mergeCell ref="AK29:AM29"/>
-    <mergeCell ref="AK30:AM30"/>
-    <mergeCell ref="AK31:AM31"/>
-    <mergeCell ref="AK32:AM32"/>
-    <mergeCell ref="R39:X43"/>
-    <mergeCell ref="AK33:AM33"/>
-    <mergeCell ref="AK34:AM34"/>
-    <mergeCell ref="AK35:AM35"/>
-    <mergeCell ref="AK36:AM36"/>
-    <mergeCell ref="Y39:AA43"/>
-    <mergeCell ref="AK21:AM21"/>
-    <mergeCell ref="AK22:AM22"/>
-    <mergeCell ref="S7:W9"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AK17:AM17"/>
     <mergeCell ref="A7:A31"/>
     <mergeCell ref="AH13:AJ13"/>
     <mergeCell ref="AH14:AJ14"/>
@@ -10405,6 +9862,27 @@
     <mergeCell ref="AK15:AM15"/>
     <mergeCell ref="AK19:AM19"/>
     <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AK21:AM21"/>
+    <mergeCell ref="AK22:AM22"/>
+    <mergeCell ref="S7:W9"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="R39:X43"/>
+    <mergeCell ref="AK33:AM33"/>
+    <mergeCell ref="AK34:AM34"/>
+    <mergeCell ref="AK35:AM35"/>
+    <mergeCell ref="AK36:AM36"/>
+    <mergeCell ref="Y39:AA43"/>
+    <mergeCell ref="AK28:AM28"/>
+    <mergeCell ref="AK29:AM29"/>
+    <mergeCell ref="AK30:AM30"/>
+    <mergeCell ref="AK31:AM31"/>
+    <mergeCell ref="AK32:AM32"/>
+    <mergeCell ref="AK23:AM23"/>
+    <mergeCell ref="AK24:AM24"/>
+    <mergeCell ref="AK25:AM25"/>
+    <mergeCell ref="AK26:AM26"/>
+    <mergeCell ref="AK27:AM27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" r:id="rId1"/>
